--- a/src/main/webapp/document/테이블 명세서.xlsx
+++ b/src/main/webapp/document/테이블 명세서.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bcu\convergenceService\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\bcu\convergenceService\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF1DE8D-7AF0-405C-88C0-FBE96064FEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{5BDF5BDF-1464-4AC7-B030-7B8466D2F9E2}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="11715" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="74">
   <si>
     <t>테이블 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,13 +314,29 @@
   </si>
   <si>
     <t>CD_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATUS_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code 값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -557,64 +572,64 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -930,89 +945,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39070431-1933-455E-85E2-09A2CED90C08}">
-  <dimension ref="B1:I59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:I3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.796875" customWidth="1"/>
+    <col min="1" max="1" width="1.75" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="9.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="2:9" ht="9.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="9" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="9" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="2:9" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="9" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" spans="2:9" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1033,907 +1048,929 @@
       <c r="H6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="13" t="s">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="13" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="5">
-        <v>20</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="13" t="s">
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>50</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="13" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="5">
-        <v>20</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="13" t="s">
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="5">
-        <v>20</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="14">
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="8">
         <v>19990726</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="13" t="s">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="5">
-        <v>20</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="14" t="s">
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="3">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="13" t="s">
+      <c r="D14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="13" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="15" t="s">
+      <c r="D16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="6" t="s">
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="9" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="1" t="s">
+      <c r="D20" s="18"/>
+      <c r="E20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F20" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="9" t="s">
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="20"/>
+    </row>
+    <row r="21" spans="2:9" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="1" t="s">
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="2:9" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="9" t="s">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I23" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="13" t="s">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
+      <c r="D24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="13" t="s">
+      <c r="H24" s="3"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5" t="s">
+      <c r="D25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="13" t="s">
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="5">
-        <v>20</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="13" t="s">
+      <c r="E26" s="3">
+        <v>20</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E27" s="3">
         <v>50</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="13" t="s">
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="13" t="s">
+      <c r="D28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="14"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="13" t="s">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="15" t="s">
+      <c r="D30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C31" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D31" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="18"/>
-    </row>
-    <row r="31" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="6" t="s">
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C33" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="8"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B33" s="9" t="s">
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="17"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="1" t="s">
+      <c r="D34" s="18"/>
+      <c r="E34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F34" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="10"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B34" s="9" t="s">
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="20"/>
+    </row>
+    <row r="35" spans="2:9" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="1" t="s">
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G35" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="2"/>
-      <c r="I34" s="11"/>
-    </row>
-    <row r="35" spans="2:9" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
+      <c r="H35" s="18"/>
       <c r="I35" s="21"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B36" s="9" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="15"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I37" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B37" s="13" t="s">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5" t="s">
+      <c r="D38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="5"/>
-      <c r="I37" s="14"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B38" s="13" t="s">
+      <c r="H38" s="3"/>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C39" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D39" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="5">
-        <v>20</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="14"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B39" s="13" t="s">
+      <c r="E39" s="3">
+        <v>20</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C40" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D40" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E40" s="3">
         <v>50</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="14"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B40" s="13" t="s">
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C41" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D41" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="14"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B41" s="13" t="s">
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C42" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="14"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B42" s="13" t="s">
+      <c r="D42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C43" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D43" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="14"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B43" s="13" t="s">
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C44" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="14"/>
-    </row>
-    <row r="44" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="15" t="s">
+      <c r="D44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C45" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D45" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="18"/>
-    </row>
-    <row r="45" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B46" s="6" t="s">
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="12"/>
+    </row>
+    <row r="46" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="8"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B47" s="9" t="s">
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="17"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="1" t="s">
+      <c r="D48" s="18"/>
+      <c r="E48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F48" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="10"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B48" s="9" t="s">
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="20"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C49" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="1" t="s">
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G49" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="2"/>
-      <c r="I48" s="11"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
+      <c r="H49" s="18"/>
       <c r="I49" s="21"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B50" s="9" t="s">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="15"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I50" s="12" t="s">
+      <c r="I51" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B51" s="13" t="s">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C52" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5" t="s">
+      <c r="D52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G52" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H51" s="5"/>
-      <c r="I51" s="14"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B52" s="13" t="s">
+      <c r="H52" s="3"/>
+      <c r="I52" s="8"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C53" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5" t="s">
+      <c r="D53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I52" s="14"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B53" s="13" t="s">
+      <c r="I53" s="8"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C54" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D54" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="5">
-        <v>20</v>
-      </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="14"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B54" s="13" t="s">
+      <c r="E54" s="3">
+        <v>20</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="8"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C55" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D55" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E55" s="3">
         <v>50</v>
       </c>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="14"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B55" s="13" t="s">
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="8"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C56" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D56" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E56" s="3">
         <v>100</v>
       </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="14"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B56" s="13" t="s">
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="8"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C57" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="14"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B57" s="13" t="s">
+      <c r="D57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="8"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C58" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D58" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="14"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B58" s="13" t="s">
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="8"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C59" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="14"/>
-    </row>
-    <row r="59" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="15" t="s">
+      <c r="D59" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="8"/>
+    </row>
+    <row r="60" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C60" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D60" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="18"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="C46:I46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="G20:I20"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="C47:I47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="G49:I49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
